--- a/eFormAPI/Plugins/InstallationChecking.Pn/InstallationChecking.Pn/Resources/export-template.xlsx
+++ b/eFormAPI/Plugins/InstallationChecking.Pn/InstallationChecking.Pn/Resources/export-template.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Microting\eform-angular-installationchecking-plugin\eFormAPI\Plugins\InstallationChecking.Pn\InstallationChecking.Pn\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Eforms\eform-angular-installationchecking-plugin\eFormAPI\Plugins\InstallationChecking.Pn\InstallationChecking.Pn\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B80CCAE-5DB8-4250-8CDD-19762165E816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13050"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{08D8A6FB-E58D-42F6-B7A8-6496849C49D9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Importmall" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Indlæs fil for radonmålinger</t>
   </si>
@@ -126,203 +136,19 @@
   </si>
   <si>
     <t>Måleansvarlig</t>
-  </si>
-  <si>
-    <t>Danmark</t>
-  </si>
-  <si>
-    <t>Boligblok</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Miljø- og sundhedsmyndighederne</t>
-  </si>
-  <si>
-    <t>Soveværelse</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Fritliggende hus</t>
-  </si>
-  <si>
-    <t>Kælder</t>
-  </si>
-  <si>
-    <t>Naturligt udtræk</t>
-  </si>
-  <si>
-    <t>Vandforsyning</t>
-  </si>
-  <si>
-    <t>Nej</t>
-  </si>
-  <si>
-    <t>Måle- eller konsulentfirma</t>
-  </si>
-  <si>
-    <t>Stue</t>
-  </si>
-  <si>
-    <t>Suomi</t>
-  </si>
-  <si>
-    <t>Rækkehus</t>
-  </si>
-  <si>
-    <t>Bjælker på jord</t>
-  </si>
-  <si>
-    <t>Udtrækning</t>
-  </si>
-  <si>
-    <t>Boret brønd</t>
-  </si>
-  <si>
-    <t>Ved ikke</t>
-  </si>
-  <si>
-    <t>Der blev ikke aflagt besøg</t>
-  </si>
-  <si>
-    <t>Hobbyrum</t>
-  </si>
-  <si>
-    <t>Norge</t>
-  </si>
-  <si>
-    <t>Feriehus</t>
-  </si>
-  <si>
-    <t>Krybekælder</t>
-  </si>
-  <si>
-    <t>Udtrækning/indløb</t>
-  </si>
-  <si>
-    <t>Gravet brønd</t>
-  </si>
-  <si>
-    <t>Gang</t>
-  </si>
-  <si>
-    <t>Sverige</t>
-  </si>
-  <si>
-    <t>Delvist fritliggende hus</t>
-  </si>
-  <si>
-    <t>Svelle-væg fundament</t>
-  </si>
-  <si>
-    <t>Udtræk / indløb med varmegenvinding</t>
-  </si>
-  <si>
-    <t>Kilde</t>
-  </si>
-  <si>
-    <t>Køkken</t>
-  </si>
-  <si>
-    <t>Rækkehuse forbundet med garage</t>
-  </si>
-  <si>
-    <t>Anden type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information mangler </t>
-  </si>
-  <si>
-    <t>Vandforsyningsselskab</t>
-  </si>
-  <si>
-    <t>Kontor</t>
-  </si>
-  <si>
-    <t>Skole/institution</t>
-  </si>
-  <si>
-    <t>Forskudt niveau</t>
-  </si>
-  <si>
-    <t>Overfladevand</t>
-  </si>
-  <si>
-    <t>Arbejdsplads</t>
-  </si>
-  <si>
-    <t>Kælder i klippe</t>
-  </si>
-  <si>
-    <t>Rørbrønd</t>
-  </si>
-  <si>
-    <t>Information mangler</t>
-  </si>
-  <si>
-    <t>Geotermisk undergrund</t>
-  </si>
-  <si>
-    <t>Ingen vandforsyning</t>
-  </si>
-  <si>
-    <t>Andre lukkede rum</t>
-  </si>
-  <si>
-    <t>Generelle faciliteter</t>
-  </si>
-  <si>
-    <t>Boligbyggeri</t>
-  </si>
-  <si>
-    <t>Kraftværk</t>
-  </si>
-  <si>
-    <t>Hus i klippe</t>
-  </si>
-  <si>
-    <t>Vandværk</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Stort hus</t>
-  </si>
-  <si>
-    <t>Butikker</t>
-  </si>
-  <si>
-    <t>Plejehjem</t>
-  </si>
-  <si>
-    <t>Slot</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Kaserne</t>
-  </si>
-  <si>
-    <t>Kirke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -376,24 +202,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -417,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,9 +283,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -492,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -527,9 +370,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,36 +529,41 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6DF9FB-CC19-4EF0-9B97-0F507EED3CBB}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -706,7 +571,7 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -714,21 +579,21 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="58">
+    <row r="11" spans="1:25" ht="75">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -803,268 +668,6 @@
       </c>
       <c r="Y11" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/eFormAPI/Plugins/InstallationChecking.Pn/InstallationChecking.Pn/Resources/export-template.xlsx
+++ b/eFormAPI/Plugins/InstallationChecking.Pn/InstallationChecking.Pn/Resources/export-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Eforms\eform-angular-installationchecking-plugin\eFormAPI\Plugins\InstallationChecking.Pn\InstallationChecking.Pn\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gid\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B80CCAE-5DB8-4250-8CDD-19762165E816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A623B264-2212-456E-891C-91C0D98366CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{08D8A6FB-E58D-42F6-B7A8-6496849C49D9}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{08D8A6FB-E58D-42F6-B7A8-6496849C49D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/eFormAPI/Plugins/InstallationChecking.Pn/InstallationChecking.Pn/Resources/export-template.xlsx
+++ b/eFormAPI/Plugins/InstallationChecking.Pn/InstallationChecking.Pn/Resources/export-template.xlsx
@@ -1,37 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mit drev\Microting\10. Kunder\Søren Garde Rådgivning\Materiale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A623B264-2212-456E-891C-91C0D98366CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{414BD979-176B-41C8-B917-D77CC4E76AD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{08D8A6FB-E58D-42F6-B7A8-6496849C49D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Importmall" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DR</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Förklaring:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Beboeren (vises som navn i målelokationens adresse i rapporten)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Förklaring:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enentuelt år for tillægsisolering, ny ventilation eller ombygning</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Förklaring:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Er der benyttet skiferbaseret gasbeton (svensk blåbeton) som byggemateriale i huset?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Förklaring:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Under målingen blev huset besøgt af</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Förklaring:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vær opmærksom på at det er antallet af beboede etager, ikke det totale antal etager</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Förklaring:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Etage for lokalet som måleren placeres i. Forskudt/kælderplan = 0, stueetage = 1 osv.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Förklaring:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Navn på den person der skal stå som måleansvarlig på rapporten.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>Indlæs fil for radonmålinger</t>
   </si>
@@ -136,37 +297,226 @@
   </si>
   <si>
     <t>Måleansvarlig</t>
+  </si>
+  <si>
+    <t>Danmark</t>
+  </si>
+  <si>
+    <t>Boligblok</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Miljø- og sundhedsmyndighederne</t>
+  </si>
+  <si>
+    <t>Soveværelse</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Fritliggende hus</t>
+  </si>
+  <si>
+    <t>Kælder</t>
+  </si>
+  <si>
+    <t>Naturligt udtræk</t>
+  </si>
+  <si>
+    <t>Vandforsyning</t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+  <si>
+    <t>Måle- eller konsulentfirma</t>
+  </si>
+  <si>
+    <t>Stue</t>
+  </si>
+  <si>
+    <t>Suomi</t>
+  </si>
+  <si>
+    <t>Rækkehus</t>
+  </si>
+  <si>
+    <t>Bjælker på jord</t>
+  </si>
+  <si>
+    <t>Udtrækning</t>
+  </si>
+  <si>
+    <t>Boret brønd</t>
+  </si>
+  <si>
+    <t>Ved ikke</t>
+  </si>
+  <si>
+    <t>Der blev ikke aflagt besøg</t>
+  </si>
+  <si>
+    <t>Hobbyrum</t>
+  </si>
+  <si>
+    <t>Norge</t>
+  </si>
+  <si>
+    <t>Feriehus</t>
+  </si>
+  <si>
+    <t>Krybekælder</t>
+  </si>
+  <si>
+    <t>Udtrækning/indløb</t>
+  </si>
+  <si>
+    <t>Gravet brønd</t>
+  </si>
+  <si>
+    <t>Gang</t>
+  </si>
+  <si>
+    <t>Sverige</t>
+  </si>
+  <si>
+    <t>Delvist fritliggende hus</t>
+  </si>
+  <si>
+    <t>Svelle-væg fundament</t>
+  </si>
+  <si>
+    <t>Udtræk / indløb med varmegenvinding</t>
+  </si>
+  <si>
+    <t>Kilde</t>
+  </si>
+  <si>
+    <t>Køkken</t>
+  </si>
+  <si>
+    <t>Rækkehuse forbundet med garage</t>
+  </si>
+  <si>
+    <t>Anden type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information mangler </t>
+  </si>
+  <si>
+    <t>Vandforsyningsselskab</t>
+  </si>
+  <si>
+    <t>Kontor</t>
+  </si>
+  <si>
+    <t>Skole/institution</t>
+  </si>
+  <si>
+    <t>Forskudt niveau</t>
+  </si>
+  <si>
+    <t>Overfladevand</t>
+  </si>
+  <si>
+    <t>Arbejdsplads</t>
+  </si>
+  <si>
+    <t>Kælder i klippe</t>
+  </si>
+  <si>
+    <t>Rørbrønd</t>
+  </si>
+  <si>
+    <t>Information mangler</t>
+  </si>
+  <si>
+    <t>Geotermisk undergrund</t>
+  </si>
+  <si>
+    <t>Ingen vandforsyning</t>
+  </si>
+  <si>
+    <t>Andre lukkede rum</t>
+  </si>
+  <si>
+    <t>Generelle faciliteter</t>
+  </si>
+  <si>
+    <t>Boligbyggeri</t>
+  </si>
+  <si>
+    <t>Kraftværk</t>
+  </si>
+  <si>
+    <t>Hus i klippe</t>
+  </si>
+  <si>
+    <t>Vandværk</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Stort hus</t>
+  </si>
+  <si>
+    <t>Butikker</t>
+  </si>
+  <si>
+    <t>Plejehjem</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Kaserne</t>
+  </si>
+  <si>
+    <t>Kirke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -179,13 +529,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF228B22"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -202,32 +550,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,10 +582,43 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblData" displayName="tblData" ref="A11:Y12">
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ejendomsnr."/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Måleadresse Navn"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Lejlighedsnummer"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Måleadresse Adresse 1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Måleadresse Adresse 2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Måleadresse Postnummer"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Måleadresse By"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Måleadresse Land"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Matrikeltype"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Fundament type"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Ventilation"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Husholdningsvand"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Opførselsår"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Renoveringsår"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Svensk ”blåbeton”"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Besøg af fagmand"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Antal etager med beboelse"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Dosimeternummer"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Rumtype"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Etage"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Rumnavn"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Start dato"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Slut dato"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Måleansvarlig"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +656,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +762,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,32 +911,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6DF9FB-CC19-4EF0-9B97-0F507EED3CBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" customWidth="1"/>
+    <col min="25" max="25" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="30" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:25" ht="30" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -571,7 +1003,7 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -579,95 +1011,492 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="75">
-      <c r="A11" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="9" t="s">
+      <c r="T11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X11" s="9" t="s">
+      <c r="X11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+  </mergeCells>
+  <dataValidations count="9">
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Maxlängden på text i kolumnen är 200 tecken." sqref="A12 F12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>1</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Kolumnen tillåter endast heltal." sqref="B12 N12:O12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>0</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Maxlängden på text i kolumnen är 100 tecken." sqref="C12 Y12 H12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Maxlängden på text i kolumnen är 200 tecken." sqref="E12" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>1</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Maxlängden på text i kolumnen är 20 tecken." sqref="G12" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Kolumnen tillåter endast heltal." sqref="U12 R12:S12" xr:uid="{00000000-0002-0000-0000-000010000000}">
+      <formula1>0</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Maxlängden på text i kolumnen är 50 tecken." sqref="D12 V12" xr:uid="{00000000-0002-0000-0000-000011000000}">
+      <formula1>1</formula1>
+      <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Ogiltigt datum" sqref="W12" xr:uid="{00000000-0002-0000-0000-000016000000}">
+      <formula1>40179</formula1>
+      <formula2>51136</formula2>
+    </dataValidation>
+    <dataValidation type="date" errorStyle="warning" operator="greaterThanOrEqual" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Slut datoen kan ikke være tidligere end start datoen" sqref="X12" xr:uid="{00000000-0002-0000-0000-000017000000}">
+      <formula1>W12:W12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-000007000000}">
+          <x14:formula1>
+            <xm:f>Data!$A$1:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-000008000000}">
+          <x14:formula1>
+            <xm:f>Data!$B$1:$B$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>J12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-000009000000}">
+          <x14:formula1>
+            <xm:f>Data!$C$1:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>K12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-00000A000000}">
+          <x14:formula1>
+            <xm:f>Data!$D$1:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-00000B000000}">
+          <x14:formula1>
+            <xm:f>Data!$E$1:$E$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>M12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-00000E000000}">
+          <x14:formula1>
+            <xm:f>Data!$F$1:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>P12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-00000F000000}">
+          <x14:formula1>
+            <xm:f>Data!$G$1:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showErrorMessage="1" errorTitle="Felaktig inmatning" error="Du måste välja ett alternativ i listan." xr:uid="{00000000-0002-0000-0000-000013000000}">
+          <x14:formula1>
+            <xm:f>Data!$H$1:$H$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>T12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
